--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Operativos.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Operativos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF7A38-9A07-43C8-99A2-E23B1181218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C065E0FB-4C34-4A29-9A97-4A203165DB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61FB547A-9ECD-42F1-9759-FD979675081E}"/>
   </bookViews>
@@ -72,13 +72,13 @@
     <t>0.28</t>
   </si>
   <si>
-    <t>Costo panela</t>
-  </si>
-  <si>
     <t>vida util hornilla</t>
   </si>
   <si>
     <t>Anos depreciacion</t>
+  </si>
+  <si>
+    <t>Costo panela por kg</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +482,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="M2">
-        <v>1468</v>
+        <v>1500</v>
       </c>
       <c r="N2">
         <v>30</v>
